--- a/docs/preproduction/contenu_multimédia.xlsx
+++ b/docs/preproduction/contenu_multimédia.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A2B3873-2201-4E0F-942A-4930BEFA4074}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5859B9-20A4-4A3C-8BB9-5F353AABBB8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" firstSheet="3" activeTab="3" xr2:uid="{087A1B5B-7B97-4327-AC94-7D0ECF997B43}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{087A1B5B-7B97-4327-AC94-7D0ECF997B43}"/>
   </bookViews>
   <sheets>
     <sheet name="Icones" sheetId="1" r:id="rId1"/>
@@ -158,13 +158,13 @@
     <t>Contrôle de vidéos, contrôle de l'éclairage et contrôle du son.</t>
   </si>
   <si>
-    <t>Vidéo : .mp4   Éclairage : ?  Son : .wav</t>
-  </si>
-  <si>
     <t>Les animations seront projetées par des projecteurs. Il y aura une lumières en dessous de chaque table pour démontrer quelle animation est active dans une boite. Il y aura le contrôle du son entre la vidéo de départ (Idle) et la dimension dans lequel le chat se retrouve.</t>
   </si>
   <si>
     <t>Le son d'ambiance est plutôt neutre, il vient rappeler l'impact psychologique de la pandémie. Le premier paysage sonore ressemble à un univers solidaire et répétitif. Pour les dimensions, les paysages sonores sont plus heureux, ils portent la joie et caractérisent chaques dimensions selon l'emplacement et avec ce qui se déroule dans celle-çi (ex : il y a des bruits de vagues, de bulles dans la dimension sous-marine, une musique d'hiver pour la dimension de bonbon, etc).</t>
+  </si>
+  <si>
+    <t>Vidéo : .mp4  Son : .wav</t>
   </si>
 </sst>
 </file>
@@ -870,7 +870,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,7 +920,7 @@
         <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -957,10 +957,10 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
         <v>41</v>
-      </c>
-      <c r="F4" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1080,21 +1080,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F9E62574328AE4EB6C9FA7F954CB8F6" ma:contentTypeVersion="6" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="72ec495bf1403a745fdcb040aaa59d51">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6bf528bc-51f8-46d0-92d6-adf98ffc519a" xmlns:ns3="44063b74-bfc1-4369-bdd1-aa93e4cf60a4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="790731b2fc16d35f1d4253eb15871a67" ns2:_="" ns3:_="">
     <xsd:import namespace="6bf528bc-51f8-46d0-92d6-adf98ffc519a"/>
@@ -1273,32 +1258,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DA0F037-7B1A-4AA6-855A-1D7377D7FE46}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="44063b74-bfc1-4369-bdd1-aa93e4cf60a4"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="6bf528bc-51f8-46d0-92d6-adf98ffc519a"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E681EC19-ABC5-4A7E-A7DE-7ACEA6554CB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED9329B8-E639-4C1F-BAE8-50B4064C9A12}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1315,4 +1290,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E681EC19-ABC5-4A7E-A7DE-7ACEA6554CB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DA0F037-7B1A-4AA6-855A-1D7377D7FE46}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="44063b74-bfc1-4369-bdd1-aa93e4cf60a4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="6bf528bc-51f8-46d0-92d6-adf98ffc519a"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>